--- a/Data_frame/balancos_definitivos/MRSL4.xlsx
+++ b/Data_frame/balancos_definitivos/MRSL4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR80"/>
+  <dimension ref="A1:AQ80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,141 +649,6 @@
           <t>31/03/2012</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2012</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2012</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2012</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2013</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2013</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2013</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2013</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2014</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2014</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2014</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2014</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2015</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2015</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2015</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2015</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2016</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2016</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2016</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2017</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2017</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2017</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2018</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2018</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2018</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -917,87 +782,6 @@
       <c r="AQ2" t="n">
         <v>562595.968</v>
       </c>
-      <c r="AR2" t="n">
-        <v>1324452.992</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>1470505.984</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>1302109.056</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1412158.976</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1529341.952</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>1533837.952</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>1538909.056</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1615511.04</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1593281.024</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>1692004.992</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1675421.056</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>1762295.04</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>1965686.016</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1945997.952</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>1794493.952</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>2136056.064</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>2010157.952</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1914311.936</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1751446.016</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>1916311.04</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>1803641.984</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>1866310.016</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>1721500.032</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>2236936.96</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>1928589.952</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>1959355.008</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>1624605.056</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1131,87 +915,6 @@
       <c r="AQ3" t="n">
         <v>244422</v>
       </c>
-      <c r="AR3" t="n">
-        <v>1224354.944</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>1367809.024</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>1212390.016</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>1335645.952</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>1437165.952</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>1452130.048</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>1441475.968</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>1511757.056</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>1490189.056</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>1581149.056</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>1553566.976</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>1646680.96</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>1846242.944</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>1832498.944</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>1671863.04</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>2024734.976</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>1904615.936</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>1811358.976</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>1648551.04</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>1819398.016</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>1711815.04</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>1780824.96</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>1617884.032</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>2138034.944</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>1757289.984</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>1792952.96</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>1440199.04</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1345,87 +1048,6 @@
       <c r="AQ4" t="n">
         <v>26558</v>
       </c>
-      <c r="AR4" t="n">
-        <v>1188</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>791</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>39811</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>3492</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>3410</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>5399</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>10577</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>3112</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>3127</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>9252</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>373</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>650</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>128</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>236</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>2575</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>13</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>947</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>20</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>1196</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>29</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>252</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>34</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>969</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>1027</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>31</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>1343</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>63285</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1559,87 +1181,6 @@
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
-      <c r="AR5" t="n">
-        <v>1038174.976</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>1168860.032</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>1000296</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>709964.032</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>760404.992</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>967644.032</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>1253899.008</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>1288944</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>1290664.96</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>947121.9840000001</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>1185353.984</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>836723.968</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>1229622.016</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>1596573.056</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>1488873.984</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>1450873.984</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>1346626.048</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>1255808</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>1459812.992</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>1518667.008</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>1391495.936</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>1463100.032</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>1322184.96</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>1691874.048</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>1363505.024</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>1360664.96</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>1042478.016</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1773,87 +1314,6 @@
       <c r="AQ6" t="n">
         <v>114918</v>
       </c>
-      <c r="AR6" t="n">
-        <v>155364.992</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>169175.008</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>139967.008</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>172992.992</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>222643.008</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>169035.008</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>143188</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>185051.008</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>180608.992</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>250842</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>252879.008</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>266560.992</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>222828.992</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>222830</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>164515.008</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>183322</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>184596.992</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>209752.992</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>178280.992</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>298039.008</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>310367.008</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>267270</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>237708.992</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>367792</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>334529.984</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>383632</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>302716.992</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1987,87 +1447,6 @@
       <c r="AQ7" t="n">
         <v>96029</v>
       </c>
-      <c r="AR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2201,87 +1580,6 @@
       <c r="AQ8" t="n">
         <v>0</v>
       </c>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2415,87 +1713,6 @@
       <c r="AQ9" t="n">
         <v>5057</v>
       </c>
-      <c r="AR9" t="n">
-        <v>3388</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>3302</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3780</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>4022</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>5269</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4264</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>8227</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>10612</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>9488</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>14856</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>19505</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>27235</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>26304</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>12700</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>14395</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>10026</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>8759</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>3752</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>46252</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>50188</v>
-      </c>
-      <c r="BO9" t="n">
-        <v>34100</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>53184</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>40279</v>
-      </c>
-      <c r="BR9" t="n">
-        <v>28205</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2629,87 +1846,6 @@
       <c r="AQ10" t="n">
         <v>1860</v>
       </c>
-      <c r="AR10" t="n">
-        <v>4311</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>5089</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2843,87 +1979,6 @@
       <c r="AQ11" t="n">
         <v>0</v>
       </c>
-      <c r="AR11" t="n">
-        <v>21928</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>20592</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>28536</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>445175.008</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>445439.008</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>305788</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>25585</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>24038</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>6300</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>359076.992</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>95456</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>515511.008</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>367360</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>160</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>1504</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>390526.016</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>362420</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>345777.984</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>502</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>2662</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>5948</v>
-      </c>
-      <c r="BM11" t="n">
-        <v>4169</v>
-      </c>
-      <c r="BN11" t="n">
-        <v>6833</v>
-      </c>
-      <c r="BO11" t="n">
-        <v>43242</v>
-      </c>
-      <c r="BP11" t="n">
-        <v>6040</v>
-      </c>
-      <c r="BQ11" t="n">
-        <v>7034</v>
-      </c>
-      <c r="BR11" t="n">
-        <v>3514</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3057,87 +2112,6 @@
       <c r="AQ12" t="n">
         <v>62541</v>
       </c>
-      <c r="AR12" t="n">
-        <v>52146</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>44497</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>25855</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>15609</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>21301</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>10599</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>5997</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>1876</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>856</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>7879</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>7985</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>8203</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>10415</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>11474</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>6357</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>747</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>20</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>15</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>15</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>10</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>28</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>35</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>316</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>317</v>
-      </c>
-      <c r="BP12" t="n">
-        <v>355</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>356</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>349</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3271,87 +2245,6 @@
       <c r="AQ13" t="n">
         <v>0</v>
       </c>
-      <c r="AR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3485,87 +2378,6 @@
       <c r="AQ14" t="n">
         <v>0</v>
       </c>
-      <c r="AR14" t="n">
-        <v>11866</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>12113</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3699,87 +2511,6 @@
       <c r="AQ15" t="n">
         <v>5634</v>
       </c>
-      <c r="AR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3913,87 +2644,6 @@
       <c r="AQ16" t="n">
         <v>0</v>
       </c>
-      <c r="AR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4127,87 +2777,6 @@
       <c r="AQ17" t="n">
         <v>0</v>
       </c>
-      <c r="AR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4341,87 +2910,6 @@
       <c r="AQ18" t="n">
         <v>40947</v>
       </c>
-      <c r="AR18" t="n">
-        <v>25958</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>19562</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>16011</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>8625</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>16008</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>10067</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>5974</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>1852</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>829</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>7843</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>7957</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>8129</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>10382</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>11443</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>6331</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>713</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4555,87 +3043,6 @@
       <c r="AQ19" t="n">
         <v>0</v>
       </c>
-      <c r="AR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4769,87 +3176,6 @@
       <c r="AQ20" t="n">
         <v>2699</v>
       </c>
-      <c r="AR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4983,87 +3309,6 @@
       <c r="AQ21" t="n">
         <v>13261</v>
       </c>
-      <c r="AR21" t="n">
-        <v>14322</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>12822</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>9844</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>6984</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>5293</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>532</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>24</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>27</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>36</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>28</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>74</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>33</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>31</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>26</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>34</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>20</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>15</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>15</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>10</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>28</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>35</v>
-      </c>
-      <c r="BN21" t="n">
-        <v>316</v>
-      </c>
-      <c r="BO21" t="n">
-        <v>317</v>
-      </c>
-      <c r="BP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5197,87 +3442,6 @@
       <c r="AQ22" t="n">
         <v>487</v>
       </c>
-      <c r="AR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>5491</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>4369</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>1938</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>11263</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>9181</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>7083</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>5058</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>3615</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>1912</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>91</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>91</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>91</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>91</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>91</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>91</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>91</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>101</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>225</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>431</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>974</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>1142</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>474</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>1023</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>810</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>1377</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5411,87 +3575,6 @@
       <c r="AQ23" t="n">
         <v>215836</v>
       </c>
-      <c r="AR23" t="n">
-        <v>2312</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>2370</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>2530</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>3208</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>3951</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>6942</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>8289</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>9231</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>14795</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>14280</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>13660</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>12905</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>13762</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>14735</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>15769</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>14497</v>
-      </c>
-      <c r="BH23" t="n">
-        <v>13688</v>
-      </c>
-      <c r="BI23" t="n">
-        <v>13639</v>
-      </c>
-      <c r="BJ23" t="n">
-        <v>13724</v>
-      </c>
-      <c r="BK23" t="n">
-        <v>12657</v>
-      </c>
-      <c r="BL23" t="n">
-        <v>11607</v>
-      </c>
-      <c r="BM23" t="n">
-        <v>7716</v>
-      </c>
-      <c r="BN23" t="n">
-        <v>7907</v>
-      </c>
-      <c r="BO23" t="n">
-        <v>6688</v>
-      </c>
-      <c r="BP23" t="n">
-        <v>5694</v>
-      </c>
-      <c r="BQ23" t="n">
-        <v>5096</v>
-      </c>
-      <c r="BR23" t="n">
-        <v>4426</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5625,87 +3708,6 @@
       <c r="AQ24" t="n">
         <v>39310</v>
       </c>
-      <c r="AR24" t="n">
-        <v>45640</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>50339</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>56965</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>55758</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>55661</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>54986</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>76064</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>87589</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>83826</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>86785</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>100209</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>94415</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>95175</v>
-      </c>
-      <c r="BE24" t="n">
-        <v>87199</v>
-      </c>
-      <c r="BF24" t="n">
-        <v>100414</v>
-      </c>
-      <c r="BG24" t="n">
-        <v>95986</v>
-      </c>
-      <c r="BH24" t="n">
-        <v>91743</v>
-      </c>
-      <c r="BI24" t="n">
-        <v>89208</v>
-      </c>
-      <c r="BJ24" t="n">
-        <v>89055</v>
-      </c>
-      <c r="BK24" t="n">
-        <v>84021</v>
-      </c>
-      <c r="BL24" t="n">
-        <v>79761</v>
-      </c>
-      <c r="BM24" t="n">
-        <v>76760</v>
-      </c>
-      <c r="BN24" t="n">
-        <v>94251</v>
-      </c>
-      <c r="BO24" t="n">
-        <v>91423</v>
-      </c>
-      <c r="BP24" t="n">
-        <v>164228</v>
-      </c>
-      <c r="BQ24" t="n">
-        <v>160140</v>
-      </c>
-      <c r="BR24" t="n">
-        <v>178254</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5839,87 +3841,6 @@
       <c r="AQ25" t="n">
         <v>0</v>
       </c>
-      <c r="AR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6053,87 +3974,6 @@
       <c r="AQ26" t="n">
         <v>562595.968</v>
       </c>
-      <c r="AR26" t="n">
-        <v>1324452.992</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>1470505.984</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>1302109.056</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>1412158.976</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>1529341.952</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>1533837.952</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>1538909.056</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>1615511.04</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>1593281.024</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>1692004.992</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>1675421.056</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>1762295.04</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>1965686.016</v>
-      </c>
-      <c r="BE26" t="n">
-        <v>1945997.952</v>
-      </c>
-      <c r="BF26" t="n">
-        <v>1794493.952</v>
-      </c>
-      <c r="BG26" t="n">
-        <v>2136056.064</v>
-      </c>
-      <c r="BH26" t="n">
-        <v>2010157.952</v>
-      </c>
-      <c r="BI26" t="n">
-        <v>1914311.936</v>
-      </c>
-      <c r="BJ26" t="n">
-        <v>1751446.016</v>
-      </c>
-      <c r="BK26" t="n">
-        <v>1916311.04</v>
-      </c>
-      <c r="BL26" t="n">
-        <v>1803641.984</v>
-      </c>
-      <c r="BM26" t="n">
-        <v>1866310.016</v>
-      </c>
-      <c r="BN26" t="n">
-        <v>1721500.032</v>
-      </c>
-      <c r="BO26" t="n">
-        <v>2236936.96</v>
-      </c>
-      <c r="BP26" t="n">
-        <v>1928589.952</v>
-      </c>
-      <c r="BQ26" t="n">
-        <v>1959355.008</v>
-      </c>
-      <c r="BR26" t="n">
-        <v>1624605.056</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6267,87 +4107,6 @@
       <c r="AQ27" t="n">
         <v>88058</v>
       </c>
-      <c r="AR27" t="n">
-        <v>1137576.96</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>1219160.96</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>1148728.96</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>1267544.064</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>1378759.936</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>1365448.96</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>1352935.04</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>1418312.96</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>1382854.016</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>1468979.968</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>1454919.04</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>1539022.976</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>1727500.032</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>1674672</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>1533715.968</v>
-      </c>
-      <c r="BG27" t="n">
-        <v>1891011.968</v>
-      </c>
-      <c r="BH27" t="n">
-        <v>1747751.936</v>
-      </c>
-      <c r="BI27" t="n">
-        <v>1646381.952</v>
-      </c>
-      <c r="BJ27" t="n">
-        <v>1494212.992</v>
-      </c>
-      <c r="BK27" t="n">
-        <v>1641065.984</v>
-      </c>
-      <c r="BL27" t="n">
-        <v>1529901.952</v>
-      </c>
-      <c r="BM27" t="n">
-        <v>1556754.944</v>
-      </c>
-      <c r="BN27" t="n">
-        <v>1468073.984</v>
-      </c>
-      <c r="BO27" t="n">
-        <v>2004854.016</v>
-      </c>
-      <c r="BP27" t="n">
-        <v>1718530.048</v>
-      </c>
-      <c r="BQ27" t="n">
-        <v>1758429.952</v>
-      </c>
-      <c r="BR27" t="n">
-        <v>1354354.944</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6481,87 +4240,6 @@
       <c r="AQ28" t="n">
         <v>16070</v>
       </c>
-      <c r="AR28" t="n">
-        <v>5281</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>9415</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>10214</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>7863</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>9509</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>12187</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>12841</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>10345</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>11846</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>14949</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>17398</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>12623</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>14562</v>
-      </c>
-      <c r="BE28" t="n">
-        <v>10302</v>
-      </c>
-      <c r="BF28" t="n">
-        <v>23427</v>
-      </c>
-      <c r="BG28" t="n">
-        <v>15422</v>
-      </c>
-      <c r="BH28" t="n">
-        <v>16059</v>
-      </c>
-      <c r="BI28" t="n">
-        <v>18826</v>
-      </c>
-      <c r="BJ28" t="n">
-        <v>20757</v>
-      </c>
-      <c r="BK28" t="n">
-        <v>15419</v>
-      </c>
-      <c r="BL28" t="n">
-        <v>15357</v>
-      </c>
-      <c r="BM28" t="n">
-        <v>19745</v>
-      </c>
-      <c r="BN28" t="n">
-        <v>22107</v>
-      </c>
-      <c r="BO28" t="n">
-        <v>16945</v>
-      </c>
-      <c r="BP28" t="n">
-        <v>16285</v>
-      </c>
-      <c r="BQ28" t="n">
-        <v>18549</v>
-      </c>
-      <c r="BR28" t="n">
-        <v>20002</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6695,87 +4373,6 @@
       <c r="AQ29" t="n">
         <v>25034</v>
       </c>
-      <c r="AR29" t="n">
-        <v>116956</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>122222</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>59824</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>119751</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>151022</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>154240</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>129887</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>160052.992</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>123575</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>180687.008</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>140150</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>201963.008</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>202988.992</v>
-      </c>
-      <c r="BE29" t="n">
-        <v>204888.992</v>
-      </c>
-      <c r="BF29" t="n">
-        <v>154950</v>
-      </c>
-      <c r="BG29" t="n">
-        <v>186007.008</v>
-      </c>
-      <c r="BH29" t="n">
-        <v>164288</v>
-      </c>
-      <c r="BI29" t="n">
-        <v>160176</v>
-      </c>
-      <c r="BJ29" t="n">
-        <v>173955.008</v>
-      </c>
-      <c r="BK29" t="n">
-        <v>206896.992</v>
-      </c>
-      <c r="BL29" t="n">
-        <v>214799.008</v>
-      </c>
-      <c r="BM29" t="n">
-        <v>301176</v>
-      </c>
-      <c r="BN29" t="n">
-        <v>238692</v>
-      </c>
-      <c r="BO29" t="n">
-        <v>239894</v>
-      </c>
-      <c r="BP29" t="n">
-        <v>187343.008</v>
-      </c>
-      <c r="BQ29" t="n">
-        <v>369849.984</v>
-      </c>
-      <c r="BR29" t="n">
-        <v>194232</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6909,87 +4506,6 @@
       <c r="AQ30" t="n">
         <v>10695</v>
       </c>
-      <c r="AR30" t="n">
-        <v>18153</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>27871</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>15558</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>13033</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>16486</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>13983</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>12552</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>20271</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>10049</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>15122</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>2514</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>7111</v>
-      </c>
-      <c r="BD30" t="n">
-        <v>377</v>
-      </c>
-      <c r="BE30" t="n">
-        <v>441</v>
-      </c>
-      <c r="BF30" t="n">
-        <v>551</v>
-      </c>
-      <c r="BG30" t="n">
-        <v>4571</v>
-      </c>
-      <c r="BH30" t="n">
-        <v>9275</v>
-      </c>
-      <c r="BI30" t="n">
-        <v>26116</v>
-      </c>
-      <c r="BJ30" t="n">
-        <v>14460</v>
-      </c>
-      <c r="BK30" t="n">
-        <v>11285</v>
-      </c>
-      <c r="BL30" t="n">
-        <v>184</v>
-      </c>
-      <c r="BM30" t="n">
-        <v>1042</v>
-      </c>
-      <c r="BN30" t="n">
-        <v>312</v>
-      </c>
-      <c r="BO30" t="n">
-        <v>1163</v>
-      </c>
-      <c r="BP30" t="n">
-        <v>119</v>
-      </c>
-      <c r="BQ30" t="n">
-        <v>664</v>
-      </c>
-      <c r="BR30" t="n">
-        <v>1206</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7123,87 +4639,6 @@
       <c r="AQ31" t="n">
         <v>20765</v>
       </c>
-      <c r="AR31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR31" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7337,87 +4772,6 @@
       <c r="AQ32" t="n">
         <v>0</v>
       </c>
-      <c r="AR32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR32" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7551,87 +4905,6 @@
       <c r="AQ33" t="n">
         <v>2246</v>
       </c>
-      <c r="AR33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR33" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7765,87 +5038,6 @@
       <c r="AQ34" t="n">
         <v>12151</v>
       </c>
-      <c r="AR34" t="n">
-        <v>997187.008</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>1059652.992</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>1063132.992</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>1126897.024</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>1201742.976</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>1185038.976</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>1197655.04</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>1227644.032</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>1237383.936</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>1258221.952</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>1294856.96</v>
-      </c>
-      <c r="BC34" t="n">
-        <v>1317325.952</v>
-      </c>
-      <c r="BD34" t="n">
-        <v>1509571.968</v>
-      </c>
-      <c r="BE34" t="n">
-        <v>1459040</v>
-      </c>
-      <c r="BF34" t="n">
-        <v>1354787.968</v>
-      </c>
-      <c r="BG34" t="n">
-        <v>1685011.968</v>
-      </c>
-      <c r="BH34" t="n">
-        <v>1558130.048</v>
-      </c>
-      <c r="BI34" t="n">
-        <v>1441264</v>
-      </c>
-      <c r="BJ34" t="n">
-        <v>1285041.024</v>
-      </c>
-      <c r="BK34" t="n">
-        <v>1407464.96</v>
-      </c>
-      <c r="BL34" t="n">
-        <v>1299561.984</v>
-      </c>
-      <c r="BM34" t="n">
-        <v>1234791.936</v>
-      </c>
-      <c r="BN34" t="n">
-        <v>1206962.944</v>
-      </c>
-      <c r="BO34" t="n">
-        <v>1746851.968</v>
-      </c>
-      <c r="BP34" t="n">
-        <v>1514782.976</v>
-      </c>
-      <c r="BQ34" t="n">
-        <v>1369367.04</v>
-      </c>
-      <c r="BR34" t="n">
-        <v>1138914.944</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7979,87 +5171,6 @@
       <c r="AQ35" t="n">
         <v>1097</v>
       </c>
-      <c r="AR35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR35" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8193,87 +5304,6 @@
       <c r="AQ36" t="n">
         <v>0</v>
       </c>
-      <c r="AR36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8407,87 +5437,6 @@
       <c r="AQ37" t="n">
         <v>97373</v>
       </c>
-      <c r="AR37" t="n">
-        <v>26091</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>9595</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>4134</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>294</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>107</v>
-      </c>
-      <c r="AW37" t="n">
-        <v>99</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>91</v>
-      </c>
-      <c r="AY37" t="n">
-        <v>83</v>
-      </c>
-      <c r="AZ37" t="n">
-        <v>77</v>
-      </c>
-      <c r="BA37" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH37" t="n">
-        <v>1134</v>
-      </c>
-      <c r="BI37" t="n">
-        <v>1134</v>
-      </c>
-      <c r="BJ37" t="n">
-        <v>1134</v>
-      </c>
-      <c r="BK37" t="n">
-        <v>18203</v>
-      </c>
-      <c r="BL37" t="n">
-        <v>17976</v>
-      </c>
-      <c r="BM37" t="n">
-        <v>10431</v>
-      </c>
-      <c r="BN37" t="n">
-        <v>13669</v>
-      </c>
-      <c r="BO37" t="n">
-        <v>15799</v>
-      </c>
-      <c r="BP37" t="n">
-        <v>12944</v>
-      </c>
-      <c r="BQ37" t="n">
-        <v>8817</v>
-      </c>
-      <c r="BR37" t="n">
-        <v>19971</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8621,87 +5570,6 @@
       <c r="AQ38" t="n">
         <v>38134</v>
       </c>
-      <c r="AR38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR38" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8835,87 +5703,6 @@
       <c r="AQ39" t="n">
         <v>0</v>
       </c>
-      <c r="AR39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR39" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9049,87 +5836,6 @@
       <c r="AQ40" t="n">
         <v>206</v>
       </c>
-      <c r="AR40" t="n">
-        <v>26091</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>9595</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>4134</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>294</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>107</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>99</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>91</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>83</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>77</v>
-      </c>
-      <c r="BA40" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR40" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9263,87 +5969,6 @@
       <c r="AQ41" t="n">
         <v>43422</v>
       </c>
-      <c r="AR41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK41" t="n">
-        <v>17069</v>
-      </c>
-      <c r="BL41" t="n">
-        <v>16842</v>
-      </c>
-      <c r="BM41" t="n">
-        <v>9268</v>
-      </c>
-      <c r="BN41" t="n">
-        <v>12450</v>
-      </c>
-      <c r="BO41" t="n">
-        <v>14516</v>
-      </c>
-      <c r="BP41" t="n">
-        <v>11771</v>
-      </c>
-      <c r="BQ41" t="n">
-        <v>7749</v>
-      </c>
-      <c r="BR41" t="n">
-        <v>18870</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9477,87 +6102,6 @@
       <c r="AQ42" t="n">
         <v>0</v>
       </c>
-      <c r="AR42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9691,87 +6235,6 @@
       <c r="AQ43" t="n">
         <v>15611</v>
       </c>
-      <c r="AR43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH43" t="n">
-        <v>1134</v>
-      </c>
-      <c r="BI43" t="n">
-        <v>1134</v>
-      </c>
-      <c r="BJ43" t="n">
-        <v>1134</v>
-      </c>
-      <c r="BK43" t="n">
-        <v>1134</v>
-      </c>
-      <c r="BL43" t="n">
-        <v>1134</v>
-      </c>
-      <c r="BM43" t="n">
-        <v>1163</v>
-      </c>
-      <c r="BN43" t="n">
-        <v>1219</v>
-      </c>
-      <c r="BO43" t="n">
-        <v>1283</v>
-      </c>
-      <c r="BP43" t="n">
-        <v>1173</v>
-      </c>
-      <c r="BQ43" t="n">
-        <v>1068</v>
-      </c>
-      <c r="BR43" t="n">
-        <v>1101</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9905,87 +6368,6 @@
       <c r="AQ44" t="n">
         <v>0</v>
       </c>
-      <c r="AR44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10119,87 +6501,6 @@
       <c r="AQ45" t="n">
         <v>0</v>
       </c>
-      <c r="AR45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10333,87 +6634,6 @@
       <c r="AQ46" t="n">
         <v>2014</v>
       </c>
-      <c r="AR46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR46" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10547,87 +6767,6 @@
       <c r="AQ47" t="n">
         <v>375150.992</v>
       </c>
-      <c r="AR47" t="n">
-        <v>160784.992</v>
-      </c>
-      <c r="AS47" t="n">
-        <v>241750</v>
-      </c>
-      <c r="AT47" t="n">
-        <v>149246</v>
-      </c>
-      <c r="AU47" t="n">
-        <v>144320.992</v>
-      </c>
-      <c r="AV47" t="n">
-        <v>150475.008</v>
-      </c>
-      <c r="AW47" t="n">
-        <v>168290</v>
-      </c>
-      <c r="AX47" t="n">
-        <v>185883.008</v>
-      </c>
-      <c r="AY47" t="n">
-        <v>197115.008</v>
-      </c>
-      <c r="AZ47" t="n">
-        <v>210350</v>
-      </c>
-      <c r="BA47" t="n">
-        <v>222958</v>
-      </c>
-      <c r="BB47" t="n">
-        <v>220502</v>
-      </c>
-      <c r="BC47" t="n">
-        <v>223272</v>
-      </c>
-      <c r="BD47" t="n">
-        <v>238186</v>
-      </c>
-      <c r="BE47" t="n">
-        <v>271326.016</v>
-      </c>
-      <c r="BF47" t="n">
-        <v>260778</v>
-      </c>
-      <c r="BG47" t="n">
-        <v>245044</v>
-      </c>
-      <c r="BH47" t="n">
-        <v>261272</v>
-      </c>
-      <c r="BI47" t="n">
-        <v>266796</v>
-      </c>
-      <c r="BJ47" t="n">
-        <v>256099.008</v>
-      </c>
-      <c r="BK47" t="n">
-        <v>257042</v>
-      </c>
-      <c r="BL47" t="n">
-        <v>255764</v>
-      </c>
-      <c r="BM47" t="n">
-        <v>299124</v>
-      </c>
-      <c r="BN47" t="n">
-        <v>239756.992</v>
-      </c>
-      <c r="BO47" t="n">
-        <v>216284</v>
-      </c>
-      <c r="BP47" t="n">
-        <v>197116</v>
-      </c>
-      <c r="BQ47" t="n">
-        <v>192108</v>
-      </c>
-      <c r="BR47" t="n">
-        <v>250279.008</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10761,87 +6900,6 @@
       <c r="AQ48" t="n">
         <v>275000</v>
       </c>
-      <c r="AR48" t="n">
-        <v>93722</v>
-      </c>
-      <c r="AS48" t="n">
-        <v>100555</v>
-      </c>
-      <c r="AT48" t="n">
-        <v>102886</v>
-      </c>
-      <c r="AU48" t="n">
-        <v>102886</v>
-      </c>
-      <c r="AV48" t="n">
-        <v>102886</v>
-      </c>
-      <c r="AW48" t="n">
-        <v>102886</v>
-      </c>
-      <c r="AX48" t="n">
-        <v>103493</v>
-      </c>
-      <c r="AY48" t="n">
-        <v>105334</v>
-      </c>
-      <c r="AZ48" t="n">
-        <v>105966</v>
-      </c>
-      <c r="BA48" t="n">
-        <v>105966</v>
-      </c>
-      <c r="BB48" t="n">
-        <v>107300</v>
-      </c>
-      <c r="BC48" t="n">
-        <v>107300</v>
-      </c>
-      <c r="BD48" t="n">
-        <v>107300</v>
-      </c>
-      <c r="BE48" t="n">
-        <v>107300</v>
-      </c>
-      <c r="BF48" t="n">
-        <v>107300</v>
-      </c>
-      <c r="BG48" t="n">
-        <v>107300</v>
-      </c>
-      <c r="BH48" t="n">
-        <v>107300</v>
-      </c>
-      <c r="BI48" t="n">
-        <v>107300</v>
-      </c>
-      <c r="BJ48" t="n">
-        <v>107300</v>
-      </c>
-      <c r="BK48" t="n">
-        <v>107300</v>
-      </c>
-      <c r="BL48" t="n">
-        <v>107300</v>
-      </c>
-      <c r="BM48" t="n">
-        <v>107300</v>
-      </c>
-      <c r="BN48" t="n">
-        <v>107300</v>
-      </c>
-      <c r="BO48" t="n">
-        <v>107300</v>
-      </c>
-      <c r="BP48" t="n">
-        <v>107300</v>
-      </c>
-      <c r="BQ48" t="n">
-        <v>107300</v>
-      </c>
-      <c r="BR48" t="n">
-        <v>107300</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10975,87 +7033,6 @@
       <c r="AQ49" t="n">
         <v>-4491</v>
       </c>
-      <c r="AR49" t="n">
-        <v>-6631</v>
-      </c>
-      <c r="AS49" t="n">
-        <v>-4956</v>
-      </c>
-      <c r="AT49" t="n">
-        <v>-3714</v>
-      </c>
-      <c r="AU49" t="n">
-        <v>-2520</v>
-      </c>
-      <c r="AV49" t="n">
-        <v>-996</v>
-      </c>
-      <c r="AW49" t="n">
-        <v>333</v>
-      </c>
-      <c r="AX49" t="n">
-        <v>1149</v>
-      </c>
-      <c r="AY49" t="n">
-        <v>1948</v>
-      </c>
-      <c r="AZ49" t="n">
-        <v>2350</v>
-      </c>
-      <c r="BA49" t="n">
-        <v>3084</v>
-      </c>
-      <c r="BB49" t="n">
-        <v>-2552</v>
-      </c>
-      <c r="BC49" t="n">
-        <v>-5220</v>
-      </c>
-      <c r="BD49" t="n">
-        <v>-4619</v>
-      </c>
-      <c r="BE49" t="n">
-        <v>-12682</v>
-      </c>
-      <c r="BF49" t="n">
-        <v>-11405</v>
-      </c>
-      <c r="BG49" t="n">
-        <v>-10759</v>
-      </c>
-      <c r="BH49" t="n">
-        <v>-10277</v>
-      </c>
-      <c r="BI49" t="n">
-        <v>-9223</v>
-      </c>
-      <c r="BJ49" t="n">
-        <v>-8910</v>
-      </c>
-      <c r="BK49" t="n">
-        <v>-6289</v>
-      </c>
-      <c r="BL49" t="n">
-        <v>-5678</v>
-      </c>
-      <c r="BM49" t="n">
-        <v>-5164</v>
-      </c>
-      <c r="BN49" t="n">
-        <v>-4752</v>
-      </c>
-      <c r="BO49" t="n">
-        <v>-10818</v>
-      </c>
-      <c r="BP49" t="n">
-        <v>-10474</v>
-      </c>
-      <c r="BQ49" t="n">
-        <v>-10154</v>
-      </c>
-      <c r="BR49" t="n">
-        <v>-9860</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11189,87 +7166,6 @@
       <c r="AQ50" t="n">
         <v>0</v>
       </c>
-      <c r="AR50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11403,87 +7299,6 @@
       <c r="AQ51" t="n">
         <v>33624</v>
       </c>
-      <c r="AR51" t="n">
-        <v>18744</v>
-      </c>
-      <c r="AS51" t="n">
-        <v>18744</v>
-      </c>
-      <c r="AT51" t="n">
-        <v>87713</v>
-      </c>
-      <c r="AU51" t="n">
-        <v>20577</v>
-      </c>
-      <c r="AV51" t="n">
-        <v>20577</v>
-      </c>
-      <c r="AW51" t="n">
-        <v>20577</v>
-      </c>
-      <c r="AX51" t="n">
-        <v>94699</v>
-      </c>
-      <c r="AY51" t="n">
-        <v>95300</v>
-      </c>
-      <c r="AZ51" t="n">
-        <v>104483</v>
-      </c>
-      <c r="BA51" t="n">
-        <v>115154</v>
-      </c>
-      <c r="BB51" t="n">
-        <v>116412</v>
-      </c>
-      <c r="BC51" t="n">
-        <v>121471</v>
-      </c>
-      <c r="BD51" t="n">
-        <v>-73551</v>
-      </c>
-      <c r="BE51" t="n">
-        <v>-177312</v>
-      </c>
-      <c r="BF51" t="n">
-        <v>164883.008</v>
-      </c>
-      <c r="BG51" t="n">
-        <v>148503.008</v>
-      </c>
-      <c r="BH51" t="n">
-        <v>164248.992</v>
-      </c>
-      <c r="BI51" t="n">
-        <v>168719.008</v>
-      </c>
-      <c r="BJ51" t="n">
-        <v>157708.992</v>
-      </c>
-      <c r="BK51" t="n">
-        <v>156031.008</v>
-      </c>
-      <c r="BL51" t="n">
-        <v>154142</v>
-      </c>
-      <c r="BM51" t="n">
-        <v>196988</v>
-      </c>
-      <c r="BN51" t="n">
-        <v>137208.992</v>
-      </c>
-      <c r="BO51" t="n">
-        <v>119802</v>
-      </c>
-      <c r="BP51" t="n">
-        <v>100290</v>
-      </c>
-      <c r="BQ51" t="n">
-        <v>94962</v>
-      </c>
-      <c r="BR51" t="n">
-        <v>152839.008</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11617,87 +7432,6 @@
       <c r="AQ52" t="n">
         <v>7182</v>
       </c>
-      <c r="AR52" t="n">
-        <v>104853</v>
-      </c>
-      <c r="AS52" t="n">
-        <v>171431.008</v>
-      </c>
-      <c r="AT52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU52" t="n">
-        <v>46850</v>
-      </c>
-      <c r="AV52" t="n">
-        <v>59578</v>
-      </c>
-      <c r="AW52" t="n">
-        <v>67212</v>
-      </c>
-      <c r="AX52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD52" t="n">
-        <v>209266</v>
-      </c>
-      <c r="BE52" t="n">
-        <v>354020</v>
-      </c>
-      <c r="BF52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR52" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11831,87 +7565,6 @@
       <c r="AQ53" t="n">
         <v>63432</v>
       </c>
-      <c r="AR53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT53" t="n">
-        <v>-37639</v>
-      </c>
-      <c r="AU53" t="n">
-        <v>-23472</v>
-      </c>
-      <c r="AV53" t="n">
-        <v>-31570</v>
-      </c>
-      <c r="AW53" t="n">
-        <v>-22718</v>
-      </c>
-      <c r="AX53" t="n">
-        <v>-13458</v>
-      </c>
-      <c r="AY53" t="n">
-        <v>-5467</v>
-      </c>
-      <c r="AZ53" t="n">
-        <v>-2449</v>
-      </c>
-      <c r="BA53" t="n">
-        <v>-1246</v>
-      </c>
-      <c r="BB53" t="n">
-        <v>-658</v>
-      </c>
-      <c r="BC53" t="n">
-        <v>-279</v>
-      </c>
-      <c r="BD53" t="n">
-        <v>-210</v>
-      </c>
-      <c r="BE53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR53" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12045,87 +7698,6 @@
       <c r="AQ54" t="n">
         <v>404</v>
       </c>
-      <c r="AR54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12259,87 +7831,6 @@
       <c r="AQ55" t="n">
         <v>0</v>
       </c>
-      <c r="AR55" t="n">
-        <v>-49903</v>
-      </c>
-      <c r="AS55" t="n">
-        <v>-44024</v>
-      </c>
-      <c r="AT55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR55" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12473,87 +7964,6 @@
       <c r="AQ56" t="n">
         <v>0</v>
       </c>
-      <c r="AR56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR56" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12687,87 +8097,6 @@
       <c r="AQ57" t="n">
         <v>0</v>
       </c>
-      <c r="AR57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR57" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12901,87 +8230,6 @@
       <c r="AQ58" t="n">
         <v>0</v>
       </c>
-      <c r="AR58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR58" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13115,87 +8363,6 @@
       <c r="AQ59" t="n">
         <v>103084</v>
       </c>
-      <c r="AR59" t="n">
-        <v>319515.008</v>
-      </c>
-      <c r="AS59" t="n">
-        <v>378441.984</v>
-      </c>
-      <c r="AT59" t="n">
-        <v>430932.992</v>
-      </c>
-      <c r="AU59" t="n">
-        <v>373412.992</v>
-      </c>
-      <c r="AV59" t="n">
-        <v>398564.992</v>
-      </c>
-      <c r="AW59" t="n">
-        <v>470872</v>
-      </c>
-      <c r="AX59" t="n">
-        <v>407959.936</v>
-      </c>
-      <c r="AY59" t="n">
-        <v>440684</v>
-      </c>
-      <c r="AZ59" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA59" t="n">
-        <v>485252</v>
-      </c>
-      <c r="BB59" t="n">
-        <v>893506.048</v>
-      </c>
-      <c r="BC59" t="n">
-        <v>534366.0159999999</v>
-      </c>
-      <c r="BD59" t="n">
-        <v>560590.976</v>
-      </c>
-      <c r="BE59" t="n">
-        <v>584499.008</v>
-      </c>
-      <c r="BF59" t="n">
-        <v>582297.088</v>
-      </c>
-      <c r="BG59" t="n">
-        <v>565926.0159999999</v>
-      </c>
-      <c r="BH59" t="n">
-        <v>543686.976</v>
-      </c>
-      <c r="BI59" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ59" t="n">
-        <v>1089670.912</v>
-      </c>
-      <c r="BK59" t="n">
-        <v>597921.9840000001</v>
-      </c>
-      <c r="BL59" t="n">
-        <v>589449.024</v>
-      </c>
-      <c r="BM59" t="n">
-        <v>550833.9840000001</v>
-      </c>
-      <c r="BN59" t="n">
-        <v>571563.008</v>
-      </c>
-      <c r="BO59" t="n">
-        <v>172084.992</v>
-      </c>
-      <c r="BP59" t="n">
-        <v>123317</v>
-      </c>
-      <c r="BQ59" t="n">
-        <v>123335</v>
-      </c>
-      <c r="BR59" t="n">
-        <v>213527.008</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13329,87 +8496,6 @@
       <c r="AQ60" t="n">
         <v>-66129</v>
       </c>
-      <c r="AR60" t="n">
-        <v>-236592</v>
-      </c>
-      <c r="AS60" t="n">
-        <v>-274668.992</v>
-      </c>
-      <c r="AT60" t="n">
-        <v>-328578.944</v>
-      </c>
-      <c r="AU60" t="n">
-        <v>-274619.008</v>
-      </c>
-      <c r="AV60" t="n">
-        <v>-286639.008</v>
-      </c>
-      <c r="AW60" t="n">
-        <v>-356696.992</v>
-      </c>
-      <c r="AX60" t="n">
-        <v>-300282.944</v>
-      </c>
-      <c r="AY60" t="n">
-        <v>-317080</v>
-      </c>
-      <c r="AZ60" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA60" t="n">
-        <v>-340800</v>
-      </c>
-      <c r="BB60" t="n">
-        <v>-622880.96</v>
-      </c>
-      <c r="BC60" t="n">
-        <v>-378263.008</v>
-      </c>
-      <c r="BD60" t="n">
-        <v>-389919.008</v>
-      </c>
-      <c r="BE60" t="n">
-        <v>-409212</v>
-      </c>
-      <c r="BF60" t="n">
-        <v>-380024.96</v>
-      </c>
-      <c r="BG60" t="n">
-        <v>-378316.992</v>
-      </c>
-      <c r="BH60" t="n">
-        <v>-351368.992</v>
-      </c>
-      <c r="BI60" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ60" t="n">
-        <v>-717577.9840000001</v>
-      </c>
-      <c r="BK60" t="n">
-        <v>-393284</v>
-      </c>
-      <c r="BL60" t="n">
-        <v>-394201.984</v>
-      </c>
-      <c r="BM60" t="n">
-        <v>-367004</v>
-      </c>
-      <c r="BN60" t="n">
-        <v>-407992.96</v>
-      </c>
-      <c r="BO60" t="n">
-        <v>-6340</v>
-      </c>
-      <c r="BP60" t="n">
-        <v>-6190</v>
-      </c>
-      <c r="BQ60" t="n">
-        <v>-10250</v>
-      </c>
-      <c r="BR60" t="n">
-        <v>-7016</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13543,87 +8629,6 @@
       <c r="AQ61" t="n">
         <v>36955</v>
       </c>
-      <c r="AR61" t="n">
-        <v>82923</v>
-      </c>
-      <c r="AS61" t="n">
-        <v>103773</v>
-      </c>
-      <c r="AT61" t="n">
-        <v>102354.016</v>
-      </c>
-      <c r="AU61" t="n">
-        <v>98794</v>
-      </c>
-      <c r="AV61" t="n">
-        <v>111926</v>
-      </c>
-      <c r="AW61" t="n">
-        <v>114175</v>
-      </c>
-      <c r="AX61" t="n">
-        <v>107677.024</v>
-      </c>
-      <c r="AY61" t="n">
-        <v>123604</v>
-      </c>
-      <c r="AZ61" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA61" t="n">
-        <v>144452</v>
-      </c>
-      <c r="BB61" t="n">
-        <v>270625.024</v>
-      </c>
-      <c r="BC61" t="n">
-        <v>156103.008</v>
-      </c>
-      <c r="BD61" t="n">
-        <v>170672</v>
-      </c>
-      <c r="BE61" t="n">
-        <v>175287.008</v>
-      </c>
-      <c r="BF61" t="n">
-        <v>202272</v>
-      </c>
-      <c r="BG61" t="n">
-        <v>187608.992</v>
-      </c>
-      <c r="BH61" t="n">
-        <v>192318</v>
-      </c>
-      <c r="BI61" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ61" t="n">
-        <v>372092.992</v>
-      </c>
-      <c r="BK61" t="n">
-        <v>204638</v>
-      </c>
-      <c r="BL61" t="n">
-        <v>195247.008</v>
-      </c>
-      <c r="BM61" t="n">
-        <v>183830</v>
-      </c>
-      <c r="BN61" t="n">
-        <v>163569.984</v>
-      </c>
-      <c r="BO61" t="n">
-        <v>165744.992</v>
-      </c>
-      <c r="BP61" t="n">
-        <v>117127</v>
-      </c>
-      <c r="BQ61" t="n">
-        <v>113085</v>
-      </c>
-      <c r="BR61" t="n">
-        <v>206510.976</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13757,87 +8762,6 @@
       <c r="AQ62" t="n">
         <v>-20135</v>
       </c>
-      <c r="AR62" t="n">
-        <v>-7240</v>
-      </c>
-      <c r="AS62" t="n">
-        <v>-10131</v>
-      </c>
-      <c r="AT62" t="n">
-        <v>-18699</v>
-      </c>
-      <c r="AU62" t="n">
-        <v>-6204</v>
-      </c>
-      <c r="AV62" t="n">
-        <v>-14393</v>
-      </c>
-      <c r="AW62" t="n">
-        <v>-11316</v>
-      </c>
-      <c r="AX62" t="n">
-        <v>-6637</v>
-      </c>
-      <c r="AY62" t="n">
-        <v>-9319</v>
-      </c>
-      <c r="AZ62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA62" t="n">
-        <v>-15237</v>
-      </c>
-      <c r="BB62" t="n">
-        <v>-26412</v>
-      </c>
-      <c r="BC62" t="n">
-        <v>-9136</v>
-      </c>
-      <c r="BD62" t="n">
-        <v>-10117</v>
-      </c>
-      <c r="BE62" t="n">
-        <v>-14690</v>
-      </c>
-      <c r="BF62" t="n">
-        <v>-14135</v>
-      </c>
-      <c r="BG62" t="n">
-        <v>-9127</v>
-      </c>
-      <c r="BH62" t="n">
-        <v>-10537</v>
-      </c>
-      <c r="BI62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ62" t="n">
-        <v>-29419</v>
-      </c>
-      <c r="BK62" t="n">
-        <v>-8946</v>
-      </c>
-      <c r="BL62" t="n">
-        <v>-8754</v>
-      </c>
-      <c r="BM62" t="n">
-        <v>-10326</v>
-      </c>
-      <c r="BN62" t="n">
-        <v>-13167</v>
-      </c>
-      <c r="BO62" t="n">
-        <v>-10904</v>
-      </c>
-      <c r="BP62" t="n">
-        <v>-10866</v>
-      </c>
-      <c r="BQ62" t="n">
-        <v>-7998</v>
-      </c>
-      <c r="BR62" t="n">
-        <v>-8834</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13971,87 +8895,6 @@
       <c r="AQ63" t="n">
         <v>-8080</v>
       </c>
-      <c r="AR63" t="n">
-        <v>-28831</v>
-      </c>
-      <c r="AS63" t="n">
-        <v>-21372</v>
-      </c>
-      <c r="AT63" t="n">
-        <v>-26036</v>
-      </c>
-      <c r="AU63" t="n">
-        <v>-28149</v>
-      </c>
-      <c r="AV63" t="n">
-        <v>-23165</v>
-      </c>
-      <c r="AW63" t="n">
-        <v>-28755</v>
-      </c>
-      <c r="AX63" t="n">
-        <v>-29030</v>
-      </c>
-      <c r="AY63" t="n">
-        <v>-27349</v>
-      </c>
-      <c r="AZ63" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA63" t="n">
-        <v>-35018</v>
-      </c>
-      <c r="BB63" t="n">
-        <v>-57814</v>
-      </c>
-      <c r="BC63" t="n">
-        <v>-34911</v>
-      </c>
-      <c r="BD63" t="n">
-        <v>-41105</v>
-      </c>
-      <c r="BE63" t="n">
-        <v>-40683</v>
-      </c>
-      <c r="BF63" t="n">
-        <v>-42633</v>
-      </c>
-      <c r="BG63" t="n">
-        <v>-33595</v>
-      </c>
-      <c r="BH63" t="n">
-        <v>-34627</v>
-      </c>
-      <c r="BI63" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ63" t="n">
-        <v>-72670</v>
-      </c>
-      <c r="BK63" t="n">
-        <v>-38268</v>
-      </c>
-      <c r="BL63" t="n">
-        <v>-37989</v>
-      </c>
-      <c r="BM63" t="n">
-        <v>-42762</v>
-      </c>
-      <c r="BN63" t="n">
-        <v>-35511</v>
-      </c>
-      <c r="BO63" t="n">
-        <v>-34619</v>
-      </c>
-      <c r="BP63" t="n">
-        <v>-36188</v>
-      </c>
-      <c r="BQ63" t="n">
-        <v>-34719</v>
-      </c>
-      <c r="BR63" t="n">
-        <v>-37740</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14185,87 +9028,6 @@
       <c r="AQ64" t="n">
         <v>0</v>
       </c>
-      <c r="AR64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR64" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14399,87 +9161,6 @@
       <c r="AQ65" t="n">
         <v>6068</v>
       </c>
-      <c r="AR65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN65" t="n">
-        <v>34178</v>
-      </c>
-      <c r="BO65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP65" t="n">
-        <v>569</v>
-      </c>
-      <c r="BQ65" t="n">
-        <v>5</v>
-      </c>
-      <c r="BR65" t="n">
-        <v>21</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14613,87 +9294,6 @@
       <c r="AQ66" t="n">
         <v>-3839</v>
       </c>
-      <c r="AR66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR66" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14827,87 +9427,6 @@
       <c r="AQ67" t="n">
         <v>0</v>
       </c>
-      <c r="AR67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS67" t="n">
-        <v>-1081</v>
-      </c>
-      <c r="AT67" t="n">
-        <v>-1122</v>
-      </c>
-      <c r="AU67" t="n">
-        <v>-2431</v>
-      </c>
-      <c r="AV67" t="n">
-        <v>-1703</v>
-      </c>
-      <c r="AW67" t="n">
-        <v>-2082</v>
-      </c>
-      <c r="AX67" t="n">
-        <v>-2098</v>
-      </c>
-      <c r="AY67" t="n">
-        <v>-2025</v>
-      </c>
-      <c r="AZ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA67" t="n">
-        <v>-1703</v>
-      </c>
-      <c r="BB67" t="n">
-        <v>-6776</v>
-      </c>
-      <c r="BC67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ67" t="n">
-        <v>-2301</v>
-      </c>
-      <c r="BK67" t="n">
-        <v>-811</v>
-      </c>
-      <c r="BL67" t="n">
-        <v>-584</v>
-      </c>
-      <c r="BM67" t="n">
-        <v>-42</v>
-      </c>
-      <c r="BN67" t="n">
-        <v>-1612</v>
-      </c>
-      <c r="BO67" t="n">
-        <v>-726</v>
-      </c>
-      <c r="BP67" t="n">
-        <v>-938</v>
-      </c>
-      <c r="BQ67" t="n">
-        <v>-340</v>
-      </c>
-      <c r="BR67" t="n">
-        <v>288</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15041,87 +9560,6 @@
       <c r="AQ68" t="n">
         <v>-1603</v>
       </c>
-      <c r="AR68" t="n">
-        <v>20028</v>
-      </c>
-      <c r="AS68" t="n">
-        <v>30663</v>
-      </c>
-      <c r="AT68" t="n">
-        <v>20096</v>
-      </c>
-      <c r="AU68" t="n">
-        <v>8849</v>
-      </c>
-      <c r="AV68" t="n">
-        <v>9912</v>
-      </c>
-      <c r="AW68" t="n">
-        <v>21836</v>
-      </c>
-      <c r="AX68" t="n">
-        <v>28081</v>
-      </c>
-      <c r="AY68" t="n">
-        <v>30017</v>
-      </c>
-      <c r="AZ68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA68" t="n">
-        <v>35702</v>
-      </c>
-      <c r="BB68" t="n">
-        <v>70220.008</v>
-      </c>
-      <c r="BC68" t="n">
-        <v>36379</v>
-      </c>
-      <c r="BD68" t="n">
-        <v>43502</v>
-      </c>
-      <c r="BE68" t="n">
-        <v>99219</v>
-      </c>
-      <c r="BF68" t="n">
-        <v>41402</v>
-      </c>
-      <c r="BG68" t="n">
-        <v>43611</v>
-      </c>
-      <c r="BH68" t="n">
-        <v>52044</v>
-      </c>
-      <c r="BI68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ68" t="n">
-        <v>101209.992</v>
-      </c>
-      <c r="BK68" t="n">
-        <v>43332</v>
-      </c>
-      <c r="BL68" t="n">
-        <v>38875</v>
-      </c>
-      <c r="BM68" t="n">
-        <v>54990</v>
-      </c>
-      <c r="BN68" t="n">
-        <v>24482.016</v>
-      </c>
-      <c r="BO68" t="n">
-        <v>25183</v>
-      </c>
-      <c r="BP68" t="n">
-        <v>39356</v>
-      </c>
-      <c r="BQ68" t="n">
-        <v>21928</v>
-      </c>
-      <c r="BR68" t="n">
-        <v>17196</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15255,87 +9693,6 @@
       <c r="AQ69" t="n">
         <v>2358</v>
       </c>
-      <c r="AR69" t="n">
-        <v>21352</v>
-      </c>
-      <c r="AS69" t="n">
-        <v>31204</v>
-      </c>
-      <c r="AT69" t="n">
-        <v>19889</v>
-      </c>
-      <c r="AU69" t="n">
-        <v>10356</v>
-      </c>
-      <c r="AV69" t="n">
-        <v>18765</v>
-      </c>
-      <c r="AW69" t="n">
-        <v>26973</v>
-      </c>
-      <c r="AX69" t="n">
-        <v>17325</v>
-      </c>
-      <c r="AY69" t="n">
-        <v>30510</v>
-      </c>
-      <c r="AZ69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA69" t="n">
-        <v>35962</v>
-      </c>
-      <c r="BB69" t="n">
-        <v>70758</v>
-      </c>
-      <c r="BC69" t="n">
-        <v>38648</v>
-      </c>
-      <c r="BD69" t="n">
-        <v>43562</v>
-      </c>
-      <c r="BE69" t="n">
-        <v>99284</v>
-      </c>
-      <c r="BF69" t="n">
-        <v>41913.008</v>
-      </c>
-      <c r="BG69" t="n">
-        <v>43621</v>
-      </c>
-      <c r="BH69" t="n">
-        <v>52078</v>
-      </c>
-      <c r="BI69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ69" t="n">
-        <v>103045.992</v>
-      </c>
-      <c r="BK69" t="n">
-        <v>43548</v>
-      </c>
-      <c r="BL69" t="n">
-        <v>38679</v>
-      </c>
-      <c r="BM69" t="n">
-        <v>54996</v>
-      </c>
-      <c r="BN69" t="n">
-        <v>24489.984</v>
-      </c>
-      <c r="BO69" t="n">
-        <v>25553</v>
-      </c>
-      <c r="BP69" t="n">
-        <v>39372</v>
-      </c>
-      <c r="BQ69" t="n">
-        <v>22084</v>
-      </c>
-      <c r="BR69" t="n">
-        <v>17228</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15469,87 +9826,6 @@
       <c r="AQ70" t="n">
         <v>-3961</v>
       </c>
-      <c r="AR70" t="n">
-        <v>-1324</v>
-      </c>
-      <c r="AS70" t="n">
-        <v>-541</v>
-      </c>
-      <c r="AT70" t="n">
-        <v>207</v>
-      </c>
-      <c r="AU70" t="n">
-        <v>-1507</v>
-      </c>
-      <c r="AV70" t="n">
-        <v>-8853</v>
-      </c>
-      <c r="AW70" t="n">
-        <v>-5137</v>
-      </c>
-      <c r="AX70" t="n">
-        <v>10756</v>
-      </c>
-      <c r="AY70" t="n">
-        <v>-493</v>
-      </c>
-      <c r="AZ70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA70" t="n">
-        <v>-260</v>
-      </c>
-      <c r="BB70" t="n">
-        <v>-538</v>
-      </c>
-      <c r="BC70" t="n">
-        <v>-2269</v>
-      </c>
-      <c r="BD70" t="n">
-        <v>-60</v>
-      </c>
-      <c r="BE70" t="n">
-        <v>-65</v>
-      </c>
-      <c r="BF70" t="n">
-        <v>-511</v>
-      </c>
-      <c r="BG70" t="n">
-        <v>-10</v>
-      </c>
-      <c r="BH70" t="n">
-        <v>-34</v>
-      </c>
-      <c r="BI70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ70" t="n">
-        <v>-1836</v>
-      </c>
-      <c r="BK70" t="n">
-        <v>-216</v>
-      </c>
-      <c r="BL70" t="n">
-        <v>196</v>
-      </c>
-      <c r="BM70" t="n">
-        <v>-6</v>
-      </c>
-      <c r="BN70" t="n">
-        <v>-8</v>
-      </c>
-      <c r="BO70" t="n">
-        <v>-370</v>
-      </c>
-      <c r="BP70" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BQ70" t="n">
-        <v>-156</v>
-      </c>
-      <c r="BR70" t="n">
-        <v>-32</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15683,87 +9959,6 @@
       <c r="AQ71" t="n">
         <v>0</v>
       </c>
-      <c r="AR71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR71" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15897,87 +10092,6 @@
       <c r="AQ72" t="n">
         <v>0</v>
       </c>
-      <c r="AR72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR72" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16111,87 +10225,6 @@
       <c r="AQ73" t="n">
         <v>0</v>
       </c>
-      <c r="AR73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR73" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16325,87 +10358,6 @@
       <c r="AQ74" t="n">
         <v>9366</v>
       </c>
-      <c r="AR74" t="n">
-        <v>66880</v>
-      </c>
-      <c r="AS74" t="n">
-        <v>101852</v>
-      </c>
-      <c r="AT74" t="n">
-        <v>76593.008</v>
-      </c>
-      <c r="AU74" t="n">
-        <v>70859</v>
-      </c>
-      <c r="AV74" t="n">
-        <v>82577</v>
-      </c>
-      <c r="AW74" t="n">
-        <v>93858</v>
-      </c>
-      <c r="AX74" t="n">
-        <v>97992.992</v>
-      </c>
-      <c r="AY74" t="n">
-        <v>114928</v>
-      </c>
-      <c r="AZ74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA74" t="n">
-        <v>128196</v>
-      </c>
-      <c r="BB74" t="n">
-        <v>249843.008</v>
-      </c>
-      <c r="BC74" t="n">
-        <v>148435.008</v>
-      </c>
-      <c r="BD74" t="n">
-        <v>162952</v>
-      </c>
-      <c r="BE74" t="n">
-        <v>219132.992</v>
-      </c>
-      <c r="BF74" t="n">
-        <v>186905.984</v>
-      </c>
-      <c r="BG74" t="n">
-        <v>188498</v>
-      </c>
-      <c r="BH74" t="n">
-        <v>199198</v>
-      </c>
-      <c r="BI74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ74" t="n">
-        <v>368913.024</v>
-      </c>
-      <c r="BK74" t="n">
-        <v>199944.992</v>
-      </c>
-      <c r="BL74" t="n">
-        <v>186795.008</v>
-      </c>
-      <c r="BM74" t="n">
-        <v>185690</v>
-      </c>
-      <c r="BN74" t="n">
-        <v>171940.032</v>
-      </c>
-      <c r="BO74" t="n">
-        <v>144679.008</v>
-      </c>
-      <c r="BP74" t="n">
-        <v>109060</v>
-      </c>
-      <c r="BQ74" t="n">
-        <v>91961</v>
-      </c>
-      <c r="BR74" t="n">
-        <v>177442.016</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16539,87 +10491,6 @@
       <c r="AQ75" t="n">
         <v>-3133</v>
       </c>
-      <c r="AR75" t="n">
-        <v>-23876</v>
-      </c>
-      <c r="AS75" t="n">
-        <v>-31906</v>
-      </c>
-      <c r="AT75" t="n">
-        <v>-23457</v>
-      </c>
-      <c r="AU75" t="n">
-        <v>-23921</v>
-      </c>
-      <c r="AV75" t="n">
-        <v>-28554</v>
-      </c>
-      <c r="AW75" t="n">
-        <v>-30281</v>
-      </c>
-      <c r="AX75" t="n">
-        <v>-32862</v>
-      </c>
-      <c r="AY75" t="n">
-        <v>-40321</v>
-      </c>
-      <c r="AZ75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA75" t="n">
-        <v>-49107</v>
-      </c>
-      <c r="BB75" t="n">
-        <v>-87100</v>
-      </c>
-      <c r="BC75" t="n">
-        <v>-48597</v>
-      </c>
-      <c r="BD75" t="n">
-        <v>-56180</v>
-      </c>
-      <c r="BE75" t="n">
-        <v>-75548</v>
-      </c>
-      <c r="BF75" t="n">
-        <v>-56073.008</v>
-      </c>
-      <c r="BG75" t="n">
-        <v>-55838</v>
-      </c>
-      <c r="BH75" t="n">
-        <v>-52972</v>
-      </c>
-      <c r="BI75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ75" t="n">
-        <v>-113462</v>
-      </c>
-      <c r="BK75" t="n">
-        <v>-62660</v>
-      </c>
-      <c r="BL75" t="n">
-        <v>-61060</v>
-      </c>
-      <c r="BM75" t="n">
-        <v>-30908</v>
-      </c>
-      <c r="BN75" t="n">
-        <v>-74299.008</v>
-      </c>
-      <c r="BO75" t="n">
-        <v>-44426</v>
-      </c>
-      <c r="BP75" t="n">
-        <v>-38037</v>
-      </c>
-      <c r="BQ75" t="n">
-        <v>-31075</v>
-      </c>
-      <c r="BR75" t="n">
-        <v>-46785.008</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16753,87 +10624,6 @@
       <c r="AQ76" t="n">
         <v>248</v>
       </c>
-      <c r="AR76" t="n">
-        <v>262</v>
-      </c>
-      <c r="AS76" t="n">
-        <v>-3368</v>
-      </c>
-      <c r="AT76" t="n">
-        <v>-261</v>
-      </c>
-      <c r="AU76" t="n">
-        <v>-88</v>
-      </c>
-      <c r="AV76" t="n">
-        <v>3212</v>
-      </c>
-      <c r="AW76" t="n">
-        <v>-1381</v>
-      </c>
-      <c r="AX76" t="n">
-        <v>677</v>
-      </c>
-      <c r="AY76" t="n">
-        <v>-5</v>
-      </c>
-      <c r="AZ76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA76" t="n">
-        <v>7633</v>
-      </c>
-      <c r="BB76" t="n">
-        <v>949</v>
-      </c>
-      <c r="BC76" t="n">
-        <v>174</v>
-      </c>
-      <c r="BD76" t="n">
-        <v>2482</v>
-      </c>
-      <c r="BE76" t="n">
-        <v>1169</v>
-      </c>
-      <c r="BF76" t="n">
-        <v>-5112</v>
-      </c>
-      <c r="BG76" t="n">
-        <v>-5617</v>
-      </c>
-      <c r="BH76" t="n">
-        <v>-9768</v>
-      </c>
-      <c r="BI76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ76" t="n">
-        <v>-5149</v>
-      </c>
-      <c r="BK76" t="n">
-        <v>-2866</v>
-      </c>
-      <c r="BL76" t="n">
-        <v>227</v>
-      </c>
-      <c r="BM76" t="n">
-        <v>7575</v>
-      </c>
-      <c r="BN76" t="n">
-        <v>-3183</v>
-      </c>
-      <c r="BO76" t="n">
-        <v>-2065</v>
-      </c>
-      <c r="BP76" t="n">
-        <v>2745</v>
-      </c>
-      <c r="BQ76" t="n">
-        <v>4022</v>
-      </c>
-      <c r="BR76" t="n">
-        <v>-11122</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16967,87 +10757,6 @@
       <c r="AQ77" t="n">
         <v>0</v>
       </c>
-      <c r="AR77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR77" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17181,87 +10890,6 @@
       <c r="AQ78" t="n">
         <v>0</v>
       </c>
-      <c r="AR78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR78" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17395,87 +11023,6 @@
       <c r="AQ79" t="n">
         <v>-74</v>
       </c>
-      <c r="AR79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR79" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17608,87 +11155,6 @@
       </c>
       <c r="AQ80" t="n">
         <v>6407</v>
-      </c>
-      <c r="AR80" t="n">
-        <v>43266</v>
-      </c>
-      <c r="AS80" t="n">
-        <v>66578</v>
-      </c>
-      <c r="AT80" t="n">
-        <v>52874.992</v>
-      </c>
-      <c r="AU80" t="n">
-        <v>46850</v>
-      </c>
-      <c r="AV80" t="n">
-        <v>57235</v>
-      </c>
-      <c r="AW80" t="n">
-        <v>62196</v>
-      </c>
-      <c r="AX80" t="n">
-        <v>65808</v>
-      </c>
-      <c r="AY80" t="n">
-        <v>74602</v>
-      </c>
-      <c r="AZ80" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA80" t="n">
-        <v>86722</v>
-      </c>
-      <c r="BB80" t="n">
-        <v>163692</v>
-      </c>
-      <c r="BC80" t="n">
-        <v>100012</v>
-      </c>
-      <c r="BD80" t="n">
-        <v>109254</v>
-      </c>
-      <c r="BE80" t="n">
-        <v>144754</v>
-      </c>
-      <c r="BF80" t="n">
-        <v>125720.992</v>
-      </c>
-      <c r="BG80" t="n">
-        <v>127043</v>
-      </c>
-      <c r="BH80" t="n">
-        <v>136458</v>
-      </c>
-      <c r="BI80" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ80" t="n">
-        <v>250302.016</v>
-      </c>
-      <c r="BK80" t="n">
-        <v>134419.008</v>
-      </c>
-      <c r="BL80" t="n">
-        <v>125962</v>
-      </c>
-      <c r="BM80" t="n">
-        <v>162356.992</v>
-      </c>
-      <c r="BN80" t="n">
-        <v>94458.016</v>
-      </c>
-      <c r="BO80" t="n">
-        <v>98188</v>
-      </c>
-      <c r="BP80" t="n">
-        <v>73768</v>
-      </c>
-      <c r="BQ80" t="n">
-        <v>64908</v>
-      </c>
-      <c r="BR80" t="n">
-        <v>119535.008</v>
       </c>
     </row>
   </sheetData>
